--- a/data/outputs/management_altmetric/54.xlsx
+++ b/data/outputs/management_altmetric/54.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE79"/>
+  <dimension ref="A1:CF79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1031,6 +1036,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1281,6 +1289,9 @@
       </c>
       <c r="CE3" t="n">
         <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -1523,6 +1534,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1770,6 +1784,9 @@
         <v>0</v>
       </c>
       <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2013,6 +2030,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2254,6 +2274,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2497,6 +2520,9 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2740,6 +2766,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2989,6 +3018,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3236,6 +3268,9 @@
         <v>0</v>
       </c>
       <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3481,6 +3516,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>34.9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3731,6 +3769,9 @@
       </c>
       <c r="CE13" t="n">
         <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -3971,6 +4012,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4230,6 +4274,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4477,6 +4524,9 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4720,6 +4770,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4983,6 +5036,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>6.05</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5232,6 +5288,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5479,6 +5538,9 @@
         <v>0</v>
       </c>
       <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5710,6 +5772,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5955,6 +6020,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6209,6 +6277,9 @@
       </c>
       <c r="CE23" t="n">
         <v>0</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -6451,6 +6522,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6698,6 +6772,9 @@
       <c r="CE25" t="n">
         <v>1</v>
       </c>
+      <c r="CF25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6945,6 +7022,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>15.63</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7203,6 +7283,9 @@
       </c>
       <c r="CE27" t="n">
         <v>1</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="28">
@@ -7451,6 +7534,9 @@
       <c r="CE28" t="n">
         <v>1</v>
       </c>
+      <c r="CF28" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7694,6 +7780,9 @@
       <c r="CE29" t="n">
         <v>2</v>
       </c>
+      <c r="CF29" t="n">
+        <v>3.85</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7933,6 +8022,9 @@
         <v>0</v>
       </c>
       <c r="CE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8168,6 +8260,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8397,6 +8492,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8646,6 +8744,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8905,6 +9006,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9164,6 +9268,9 @@
       <c r="CE35" t="n">
         <v>1</v>
       </c>
+      <c r="CF35" t="n">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9413,6 +9520,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9668,6 +9778,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9917,6 +10030,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10170,6 +10286,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10413,6 +10532,9 @@
         <v>0</v>
       </c>
       <c r="CE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10652,6 +10774,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10895,6 +11020,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11148,6 +11276,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11406,6 +11537,9 @@
       </c>
       <c r="CE44" t="n">
         <v>1</v>
+      </c>
+      <c r="CF44" t="n">
+        <v>11.8</v>
       </c>
     </row>
     <row r="45">
@@ -11648,6 +11782,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11889,6 +12026,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12140,6 +12280,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12387,6 +12530,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12632,6 +12778,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12881,6 +13030,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13134,6 +13286,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13381,6 +13536,9 @@
         <v>0</v>
       </c>
       <c r="CE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13612,6 +13770,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13859,6 +14020,9 @@
         <v>0</v>
       </c>
       <c r="CE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14090,6 +14254,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14339,6 +14506,9 @@
         <v>54</v>
       </c>
       <c r="CE56" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14582,6 +14752,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14823,6 +14996,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15078,6 +15254,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15317,6 +15496,9 @@
         <v>0</v>
       </c>
       <c r="CE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15566,6 +15748,9 @@
       <c r="CE61" t="n">
         <v>2</v>
       </c>
+      <c r="CF61" t="n">
+        <v>88.08</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15815,6 +16000,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16072,6 +16260,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16319,6 +16510,9 @@
         <v>0</v>
       </c>
       <c r="CE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16562,6 +16756,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16807,6 +17004,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17058,6 +17258,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17308,6 +17511,9 @@
       </c>
       <c r="CE68" t="n">
         <v>0</v>
+      </c>
+      <c r="CF68" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="69">
@@ -17550,6 +17756,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17791,6 +18000,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18042,6 +18254,9 @@
       <c r="CE71" t="n">
         <v>1</v>
       </c>
+      <c r="CF71" t="n">
+        <v>16.6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18288,6 +18503,9 @@
       </c>
       <c r="CE72" t="n">
         <v>0</v>
+      </c>
+      <c r="CF72" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="73">
@@ -18532,6 +18750,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18781,6 +19002,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19026,6 +19250,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19271,6 +19498,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19516,6 +19746,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19763,6 +19996,9 @@
         <v>0</v>
       </c>
       <c r="CE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19994,6 +20230,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
